--- a/data/pca/factorExposure/factorExposure_2016-01-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01785198206588218</v>
+        <v>0.01942871628353883</v>
       </c>
       <c r="C2">
-        <v>-0.04261725822831702</v>
+        <v>-0.03770256216568572</v>
       </c>
       <c r="D2">
-        <v>0.1073657424736114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1174424962618049</v>
+      </c>
+      <c r="E2">
+        <v>-0.08817808950585776</v>
+      </c>
+      <c r="F2">
+        <v>-0.001965619137525455</v>
+      </c>
+      <c r="G2">
+        <v>-0.02770389962846813</v>
+      </c>
+      <c r="H2">
+        <v>0.09153764717224479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02509835348344905</v>
+        <v>0.01494480504711953</v>
       </c>
       <c r="C3">
-        <v>-0.07570269535557661</v>
+        <v>-0.04179196458984312</v>
       </c>
       <c r="D3">
-        <v>0.159910650626036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08069186235272917</v>
+      </c>
+      <c r="E3">
+        <v>-0.1084006096935515</v>
+      </c>
+      <c r="F3">
+        <v>0.04027393398077823</v>
+      </c>
+      <c r="G3">
+        <v>-0.08665355165179325</v>
+      </c>
+      <c r="H3">
+        <v>0.06174570005096423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05782838661026803</v>
+        <v>0.06021899794587511</v>
       </c>
       <c r="C4">
-        <v>-0.05640070975272998</v>
+        <v>-0.06678943261596164</v>
       </c>
       <c r="D4">
-        <v>0.1259815766293671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.128568770874321</v>
+      </c>
+      <c r="E4">
+        <v>-0.07163041637180644</v>
+      </c>
+      <c r="F4">
+        <v>0.00643126901752272</v>
+      </c>
+      <c r="G4">
+        <v>0.02836970574324822</v>
+      </c>
+      <c r="H4">
+        <v>-0.0295544787054349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04218992877674275</v>
+        <v>0.04073589298490116</v>
       </c>
       <c r="C6">
-        <v>-0.02717408994063822</v>
+        <v>-0.02727501359522632</v>
       </c>
       <c r="D6">
-        <v>0.1194765352657491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1264507299272074</v>
+      </c>
+      <c r="E6">
+        <v>-0.04496969654554356</v>
+      </c>
+      <c r="F6">
+        <v>0.008149827135594022</v>
+      </c>
+      <c r="G6">
+        <v>-0.009761396183642069</v>
+      </c>
+      <c r="H6">
+        <v>0.003249885896714929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02533698125341864</v>
+        <v>0.01981667458587556</v>
       </c>
       <c r="C7">
-        <v>-0.02919222017245439</v>
+        <v>-0.0362606645560148</v>
       </c>
       <c r="D7">
-        <v>0.09102039402087006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09083145380305166</v>
+      </c>
+      <c r="E7">
+        <v>-0.05628872809168069</v>
+      </c>
+      <c r="F7">
+        <v>0.0150389495605575</v>
+      </c>
+      <c r="G7">
+        <v>0.05071378239185494</v>
+      </c>
+      <c r="H7">
+        <v>0.08678027129606002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.006443001743714202</v>
+        <v>0.007562221383328872</v>
       </c>
       <c r="C8">
-        <v>-0.03850936275645377</v>
+        <v>-0.03749957682234938</v>
       </c>
       <c r="D8">
-        <v>0.0732987778149396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07826407920487689</v>
+      </c>
+      <c r="E8">
+        <v>-0.04182476541656738</v>
+      </c>
+      <c r="F8">
+        <v>0.0263996674464702</v>
+      </c>
+      <c r="G8">
+        <v>0.002015241923647462</v>
+      </c>
+      <c r="H8">
+        <v>0.02536601622000475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03904974762257892</v>
+        <v>0.04299444693205344</v>
       </c>
       <c r="C9">
-        <v>-0.04107650923178233</v>
+        <v>-0.05501822261353929</v>
       </c>
       <c r="D9">
-        <v>0.09949569998473563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1108692151633544</v>
+      </c>
+      <c r="E9">
+        <v>-0.04737769771893473</v>
+      </c>
+      <c r="F9">
+        <v>-0.00484733795310667</v>
+      </c>
+      <c r="G9">
+        <v>0.03212513870949386</v>
+      </c>
+      <c r="H9">
+        <v>-0.002126703770454767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08029508828528464</v>
+        <v>0.1166169464783693</v>
       </c>
       <c r="C10">
-        <v>0.1938645060561776</v>
+        <v>0.1964818702781812</v>
       </c>
       <c r="D10">
-        <v>0.01497049559857273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0004011942113252418</v>
+      </c>
+      <c r="E10">
+        <v>-0.0499355583194683</v>
+      </c>
+      <c r="F10">
+        <v>0.01467806611554092</v>
+      </c>
+      <c r="G10">
+        <v>0.02967754688653336</v>
+      </c>
+      <c r="H10">
+        <v>-0.02293484727147599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03998299476140445</v>
+        <v>0.03320993385370498</v>
       </c>
       <c r="C11">
-        <v>-0.04473605043076404</v>
+        <v>-0.04507828033169841</v>
       </c>
       <c r="D11">
-        <v>0.06564409978956809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05916469297254211</v>
+      </c>
+      <c r="E11">
+        <v>-0.01794288883957295</v>
+      </c>
+      <c r="F11">
+        <v>0.002127959236000896</v>
+      </c>
+      <c r="G11">
+        <v>0.03046204573500111</v>
+      </c>
+      <c r="H11">
+        <v>0.0527819438265924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04476080061624078</v>
+        <v>0.03690949241331229</v>
       </c>
       <c r="C12">
-        <v>-0.04164214476122176</v>
+        <v>-0.0450645654478565</v>
       </c>
       <c r="D12">
-        <v>0.05822461060586698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05667341198828155</v>
+      </c>
+      <c r="E12">
+        <v>-0.02883952281946865</v>
+      </c>
+      <c r="F12">
+        <v>-0.004633753482794331</v>
+      </c>
+      <c r="G12">
+        <v>0.02998099928693709</v>
+      </c>
+      <c r="H12">
+        <v>0.06005409583744944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01602666708301036</v>
+        <v>0.01961629113298705</v>
       </c>
       <c r="C13">
-        <v>-0.03488036764262754</v>
+        <v>-0.0372408304028801</v>
       </c>
       <c r="D13">
-        <v>0.1258318100295892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1369108457046971</v>
+      </c>
+      <c r="E13">
+        <v>-0.08622183266171439</v>
+      </c>
+      <c r="F13">
+        <v>0.01500109303870233</v>
+      </c>
+      <c r="G13">
+        <v>0.03519566984018895</v>
+      </c>
+      <c r="H13">
+        <v>0.0705040656936009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01463304125042791</v>
+        <v>0.008831311447492789</v>
       </c>
       <c r="C14">
-        <v>-0.02229235774346114</v>
+        <v>-0.02614542767883981</v>
       </c>
       <c r="D14">
-        <v>0.07944129537737772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08176068029271157</v>
+      </c>
+      <c r="E14">
+        <v>-0.05438759726765402</v>
+      </c>
+      <c r="F14">
+        <v>-0.01161400649692109</v>
+      </c>
+      <c r="G14">
+        <v>0.02796584162760514</v>
+      </c>
+      <c r="H14">
+        <v>0.08293062909038276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001005535785918605</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.005939290629479882</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02097977420052272</v>
+      </c>
+      <c r="E15">
+        <v>-0.003870533448194461</v>
+      </c>
+      <c r="F15">
+        <v>-0.002023080513116467</v>
+      </c>
+      <c r="G15">
+        <v>-0.002501303133080265</v>
+      </c>
+      <c r="H15">
+        <v>0.01257250812470338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.04088260016788593</v>
+        <v>0.0341098666167644</v>
       </c>
       <c r="C16">
-        <v>-0.04856406041269211</v>
+        <v>-0.04718868226646461</v>
       </c>
       <c r="D16">
-        <v>0.06812542229187685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06233515389145296</v>
+      </c>
+      <c r="E16">
+        <v>-0.03016737779120034</v>
+      </c>
+      <c r="F16">
+        <v>-0.01379617636069631</v>
+      </c>
+      <c r="G16">
+        <v>0.02705397484944025</v>
+      </c>
+      <c r="H16">
+        <v>0.05881428897698227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01575767778351793</v>
+        <v>0.01430228403182355</v>
       </c>
       <c r="C19">
-        <v>-0.03857119770605752</v>
+        <v>-0.03442025536329833</v>
       </c>
       <c r="D19">
-        <v>0.1722223646406081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1327848140541076</v>
+      </c>
+      <c r="E19">
+        <v>-0.08074410227664375</v>
+      </c>
+      <c r="F19">
+        <v>-0.03117651460026394</v>
+      </c>
+      <c r="G19">
+        <v>0.001557029838573401</v>
+      </c>
+      <c r="H19">
+        <v>0.04887280406031096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02049645209563331</v>
+        <v>0.01688786965531808</v>
       </c>
       <c r="C20">
-        <v>-0.0353454272055671</v>
+        <v>-0.03708280695824034</v>
       </c>
       <c r="D20">
-        <v>0.09559506719382489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09262150714514775</v>
+      </c>
+      <c r="E20">
+        <v>-0.0671348665970963</v>
+      </c>
+      <c r="F20">
+        <v>-0.01184176043844873</v>
+      </c>
+      <c r="G20">
+        <v>0.01908088386324569</v>
+      </c>
+      <c r="H20">
+        <v>0.04289790100057614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0136160653181329</v>
+        <v>0.0161681325728761</v>
       </c>
       <c r="C21">
-        <v>-0.02799924105894478</v>
+        <v>-0.03870404579358531</v>
       </c>
       <c r="D21">
-        <v>0.1268535561669366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1292496059233491</v>
+      </c>
+      <c r="E21">
+        <v>-0.1104601557889306</v>
+      </c>
+      <c r="F21">
+        <v>-0.01775601792110406</v>
+      </c>
+      <c r="G21">
+        <v>0.07095780273577933</v>
+      </c>
+      <c r="H21">
+        <v>0.07536308440301619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001711599834590462</v>
+        <v>0.00537879138973825</v>
       </c>
       <c r="C22">
-        <v>-0.01049100570240047</v>
+        <v>-0.03276253884746615</v>
       </c>
       <c r="D22">
-        <v>0.04854195124911052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1108050849612762</v>
+      </c>
+      <c r="E22">
+        <v>-0.03354218981983173</v>
+      </c>
+      <c r="F22">
+        <v>0.07159193928533245</v>
+      </c>
+      <c r="G22">
+        <v>-0.05171654745424093</v>
+      </c>
+      <c r="H22">
+        <v>-0.01729166484958465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001667263193140394</v>
+        <v>0.005474303545299211</v>
       </c>
       <c r="C23">
-        <v>-0.01032351590562869</v>
+        <v>-0.03311299401827877</v>
       </c>
       <c r="D23">
-        <v>0.04822784417545713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1100696272752125</v>
+      </c>
+      <c r="E23">
+        <v>-0.03367088075968792</v>
+      </c>
+      <c r="F23">
+        <v>0.07152140995218143</v>
+      </c>
+      <c r="G23">
+        <v>-0.051029589364758</v>
+      </c>
+      <c r="H23">
+        <v>-0.0177894597789089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03852640120586433</v>
+        <v>0.03514247744298727</v>
       </c>
       <c r="C24">
-        <v>-0.04865702769358456</v>
+        <v>-0.0544246039496844</v>
       </c>
       <c r="D24">
-        <v>0.06688396773423905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06629696010121994</v>
+      </c>
+      <c r="E24">
+        <v>-0.03229786664801981</v>
+      </c>
+      <c r="F24">
+        <v>-0.0120252027340152</v>
+      </c>
+      <c r="G24">
+        <v>0.04351462660383537</v>
+      </c>
+      <c r="H24">
+        <v>0.06122761855539086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04691496448542661</v>
+        <v>0.04019418059996828</v>
       </c>
       <c r="C25">
-        <v>-0.05126255776229304</v>
+        <v>-0.05323980238382903</v>
       </c>
       <c r="D25">
-        <v>0.06627976853900296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0605911124083863</v>
+      </c>
+      <c r="E25">
+        <v>-0.03058618693563012</v>
+      </c>
+      <c r="F25">
+        <v>0.002473773439068888</v>
+      </c>
+      <c r="G25">
+        <v>0.04002921859414357</v>
+      </c>
+      <c r="H25">
+        <v>0.04877309257451106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02340169229949253</v>
+        <v>0.02086628593572317</v>
       </c>
       <c r="C26">
-        <v>-0.009849625742678357</v>
+        <v>-0.01737918290897328</v>
       </c>
       <c r="D26">
-        <v>0.05764354987866784</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06455519823451056</v>
+      </c>
+      <c r="E26">
+        <v>-0.03664215663239428</v>
+      </c>
+      <c r="F26">
+        <v>-0.01030959948951228</v>
+      </c>
+      <c r="G26">
+        <v>0.0186063299729301</v>
+      </c>
+      <c r="H26">
+        <v>0.05183644253471835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1097944838668676</v>
+        <v>0.1650885315713554</v>
       </c>
       <c r="C28">
-        <v>0.2797120273638238</v>
+        <v>0.2620877135482482</v>
       </c>
       <c r="D28">
-        <v>-0.02504374134460654</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.009713799662285793</v>
+      </c>
+      <c r="E28">
+        <v>-0.0723694528557756</v>
+      </c>
+      <c r="F28">
+        <v>0.00397898872734314</v>
+      </c>
+      <c r="G28">
+        <v>0.06464459307617033</v>
+      </c>
+      <c r="H28">
+        <v>-0.02539492557898908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.008426607699106045</v>
+        <v>0.008243996501557526</v>
       </c>
       <c r="C29">
-        <v>-0.02177395437173523</v>
+        <v>-0.02394860537956014</v>
       </c>
       <c r="D29">
-        <v>0.06307428522662344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07408188365534807</v>
+      </c>
+      <c r="E29">
+        <v>-0.05892859521927041</v>
+      </c>
+      <c r="F29">
+        <v>0.001551879261662378</v>
+      </c>
+      <c r="G29">
+        <v>0.04088504717309917</v>
+      </c>
+      <c r="H29">
+        <v>0.07697420742003135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04361135824657611</v>
+        <v>0.04464132430639067</v>
       </c>
       <c r="C30">
-        <v>-0.0337520077633081</v>
+        <v>-0.05496616688969893</v>
       </c>
       <c r="D30">
-        <v>0.1484223971066236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1691111667586623</v>
+      </c>
+      <c r="E30">
+        <v>-0.03706803503709261</v>
+      </c>
+      <c r="F30">
+        <v>-0.004270196770074297</v>
+      </c>
+      <c r="G30">
+        <v>-0.01843506064679406</v>
+      </c>
+      <c r="H30">
+        <v>0.01674031680085672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06920591195899899</v>
+        <v>0.06285540996085864</v>
       </c>
       <c r="C31">
-        <v>-0.05330897846840121</v>
+        <v>-0.07131504539498117</v>
       </c>
       <c r="D31">
-        <v>0.0627930027561521</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05200194595277148</v>
+      </c>
+      <c r="E31">
+        <v>-0.06036280098721584</v>
+      </c>
+      <c r="F31">
+        <v>0.03467830469816609</v>
+      </c>
+      <c r="G31">
+        <v>0.02828504116059728</v>
+      </c>
+      <c r="H31">
+        <v>0.0249716330027702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004801476399563026</v>
+        <v>0.01253037544015874</v>
       </c>
       <c r="C32">
-        <v>-0.00922896395594928</v>
+        <v>-0.02187600035798411</v>
       </c>
       <c r="D32">
-        <v>0.07478314556941489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09027778843913131</v>
+      </c>
+      <c r="E32">
+        <v>-0.09622576915992985</v>
+      </c>
+      <c r="F32">
+        <v>-0.008255983439706569</v>
+      </c>
+      <c r="G32">
+        <v>0.06853945322154419</v>
+      </c>
+      <c r="H32">
+        <v>0.05420197327952379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02958589217329231</v>
+        <v>0.02678237599494324</v>
       </c>
       <c r="C33">
-        <v>-0.03274430396033804</v>
+        <v>-0.04399384839102094</v>
       </c>
       <c r="D33">
-        <v>0.1354139459235523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1297474168507642</v>
+      </c>
+      <c r="E33">
+        <v>-0.06437020507773887</v>
+      </c>
+      <c r="F33">
+        <v>0.009064150457208086</v>
+      </c>
+      <c r="G33">
+        <v>0.03365773269317068</v>
+      </c>
+      <c r="H33">
+        <v>0.0514563515069958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04083204074435671</v>
+        <v>0.0345345014180598</v>
       </c>
       <c r="C34">
-        <v>-0.05943669300462863</v>
+        <v>-0.06067000414465775</v>
       </c>
       <c r="D34">
-        <v>0.06491179200000437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05963135878183721</v>
+      </c>
+      <c r="E34">
+        <v>-0.01397117093473619</v>
+      </c>
+      <c r="F34">
+        <v>-0.008382278424305124</v>
+      </c>
+      <c r="G34">
+        <v>0.04484078123422087</v>
+      </c>
+      <c r="H34">
+        <v>0.06973683359422543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0003256022412810356</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-1.35922274802849e-06</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.001870157414343565</v>
+      </c>
+      <c r="E35">
+        <v>-5.5264260857891e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.0003247399113473404</v>
+      </c>
+      <c r="G35">
+        <v>0.000649623818571208</v>
+      </c>
+      <c r="H35">
+        <v>0.0021754246048618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02064545206620035</v>
+        <v>0.0188616488055807</v>
       </c>
       <c r="C36">
-        <v>-0.009087414131103632</v>
+        <v>-0.01715550882784879</v>
       </c>
       <c r="D36">
-        <v>0.07217851115770098</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07389191154207853</v>
+      </c>
+      <c r="E36">
+        <v>-0.05152702746833739</v>
+      </c>
+      <c r="F36">
+        <v>-0.007487437693950493</v>
+      </c>
+      <c r="G36">
+        <v>0.02982005149875619</v>
+      </c>
+      <c r="H36">
+        <v>0.04214222116882687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03037724346636955</v>
+        <v>0.0240939922922948</v>
       </c>
       <c r="C38">
-        <v>-0.02075000746409604</v>
+        <v>-0.02282169749098244</v>
       </c>
       <c r="D38">
-        <v>0.05352989752897577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05952360741896288</v>
+      </c>
+      <c r="E38">
+        <v>-0.04234907109636308</v>
+      </c>
+      <c r="F38">
+        <v>-0.006609352932266982</v>
+      </c>
+      <c r="G38">
+        <v>-0.02604651905251784</v>
+      </c>
+      <c r="H38">
+        <v>0.03463514826688079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04840042753537635</v>
+        <v>0.04123695359801093</v>
       </c>
       <c r="C39">
-        <v>-0.05548654933025492</v>
+        <v>-0.06226949224131505</v>
       </c>
       <c r="D39">
-        <v>0.08094756255713109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.09672132555827249</v>
+      </c>
+      <c r="E39">
+        <v>-0.02666474438368054</v>
+      </c>
+      <c r="F39">
+        <v>-0.02628916048493772</v>
+      </c>
+      <c r="G39">
+        <v>0.02827980018432213</v>
+      </c>
+      <c r="H39">
+        <v>0.07764818919672249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01250206585380449</v>
+        <v>0.01529998426080276</v>
       </c>
       <c r="C40">
-        <v>-0.04952247435245735</v>
+        <v>-0.03986734452655431</v>
       </c>
       <c r="D40">
-        <v>0.08605269282527044</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0924583429970627</v>
+      </c>
+      <c r="E40">
+        <v>-0.09282483903217356</v>
+      </c>
+      <c r="F40">
+        <v>0.04441828401735867</v>
+      </c>
+      <c r="G40">
+        <v>0.02054013796810722</v>
+      </c>
+      <c r="H40">
+        <v>0.1319993248181055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02550650422122272</v>
+        <v>0.02289690752778581</v>
       </c>
       <c r="C41">
-        <v>-0.000775814905129219</v>
+        <v>-0.01036503545958417</v>
       </c>
       <c r="D41">
-        <v>0.07858009751718556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05994908091309926</v>
+      </c>
+      <c r="E41">
+        <v>-0.06420586843445303</v>
+      </c>
+      <c r="F41">
+        <v>-0.007689946894168535</v>
+      </c>
+      <c r="G41">
+        <v>0.01513618829971652</v>
+      </c>
+      <c r="H41">
+        <v>0.04090834527972275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03929031009620289</v>
+        <v>0.02824423150769219</v>
       </c>
       <c r="C43">
-        <v>-0.01613575596697075</v>
+        <v>-0.02252261559569748</v>
       </c>
       <c r="D43">
-        <v>0.1194179999982152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.09133605884121775</v>
+      </c>
+      <c r="E43">
+        <v>-0.05855782113402382</v>
+      </c>
+      <c r="F43">
+        <v>0.000593305286481412</v>
+      </c>
+      <c r="G43">
+        <v>0.02270614398517938</v>
+      </c>
+      <c r="H43">
+        <v>0.0594356225310265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01757308822754197</v>
+        <v>0.01972016090714983</v>
       </c>
       <c r="C44">
-        <v>-0.04930412939964569</v>
+        <v>-0.0431195488799169</v>
       </c>
       <c r="D44">
-        <v>0.07870858671898577</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08938858687186535</v>
+      </c>
+      <c r="E44">
+        <v>-0.07945098733232134</v>
+      </c>
+      <c r="F44">
+        <v>-0.01476302709894629</v>
+      </c>
+      <c r="G44">
+        <v>0.03630436673516856</v>
+      </c>
+      <c r="H44">
+        <v>0.04831123832498022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02074084252316308</v>
+        <v>0.01744745489405367</v>
       </c>
       <c r="C46">
-        <v>-0.01996115247917365</v>
+        <v>-0.02841850080188365</v>
       </c>
       <c r="D46">
-        <v>0.06861670276959544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.07833813157991176</v>
+      </c>
+      <c r="E46">
+        <v>-0.06086073585913586</v>
+      </c>
+      <c r="F46">
+        <v>-0.02203507606966211</v>
+      </c>
+      <c r="G46">
+        <v>0.05119882807657012</v>
+      </c>
+      <c r="H46">
+        <v>0.07805923517722271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09748905247901261</v>
+        <v>0.09392579295359424</v>
       </c>
       <c r="C47">
-        <v>-0.07089897673842169</v>
+        <v>-0.08938321814100871</v>
       </c>
       <c r="D47">
-        <v>0.04015603999086229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03122185792945594</v>
+      </c>
+      <c r="E47">
+        <v>-0.04879766070248912</v>
+      </c>
+      <c r="F47">
+        <v>0.02055717346799666</v>
+      </c>
+      <c r="G47">
+        <v>0.05444788219859702</v>
+      </c>
+      <c r="H47">
+        <v>-0.008520473475573512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02374012435174923</v>
+        <v>0.02105361665078489</v>
       </c>
       <c r="C48">
-        <v>-0.01069881786427031</v>
+        <v>-0.01985349627331173</v>
       </c>
       <c r="D48">
-        <v>0.07169897348729469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07486547729018853</v>
+      </c>
+      <c r="E48">
+        <v>-0.06207250405957787</v>
+      </c>
+      <c r="F48">
+        <v>-0.02258118907638306</v>
+      </c>
+      <c r="G48">
+        <v>0.03174723193860895</v>
+      </c>
+      <c r="H48">
+        <v>0.04318916160609841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08468203253271325</v>
+        <v>0.07144100667543855</v>
       </c>
       <c r="C50">
-        <v>-0.08191769816094097</v>
+        <v>-0.0783653303241424</v>
       </c>
       <c r="D50">
-        <v>0.06074908879782923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05303913266271924</v>
+      </c>
+      <c r="E50">
+        <v>-0.07239683438517093</v>
+      </c>
+      <c r="F50">
+        <v>0.04317649198028618</v>
+      </c>
+      <c r="G50">
+        <v>0.009468607138718355</v>
+      </c>
+      <c r="H50">
+        <v>0.04429641702265213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01373016953637288</v>
+        <v>0.01137233055443791</v>
       </c>
       <c r="C51">
-        <v>-0.02941167412665745</v>
+        <v>-0.02154377374477623</v>
       </c>
       <c r="D51">
-        <v>0.09346459173060077</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09043026486948288</v>
+      </c>
+      <c r="E51">
+        <v>-0.04327666576754862</v>
+      </c>
+      <c r="F51">
+        <v>-0.0081736458627709</v>
+      </c>
+      <c r="G51">
+        <v>0.01571983825636595</v>
+      </c>
+      <c r="H51">
+        <v>0.07230176749768341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08526707247987123</v>
+        <v>0.09669200859030741</v>
       </c>
       <c r="C53">
-        <v>-0.08221922186469144</v>
+        <v>-0.09493626236475798</v>
       </c>
       <c r="D53">
-        <v>0.01601663140728579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004280827533251086</v>
+      </c>
+      <c r="E53">
+        <v>-0.1019714816157816</v>
+      </c>
+      <c r="F53">
+        <v>0.01562079410316201</v>
+      </c>
+      <c r="G53">
+        <v>0.07585959923264106</v>
+      </c>
+      <c r="H53">
+        <v>-0.06050948053620569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03646531685556847</v>
+        <v>0.0296086557664797</v>
       </c>
       <c r="C54">
-        <v>-0.02945298550080396</v>
+        <v>-0.0348563226535995</v>
       </c>
       <c r="D54">
-        <v>0.07903680658852322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08483885220636082</v>
+      </c>
+      <c r="E54">
+        <v>-0.06167656187837547</v>
+      </c>
+      <c r="F54">
+        <v>-0.02291653666633482</v>
+      </c>
+      <c r="G54">
+        <v>0.03266085046839427</v>
+      </c>
+      <c r="H54">
+        <v>0.1013855616243741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08870640902739126</v>
+        <v>0.09232251409414259</v>
       </c>
       <c r="C55">
-        <v>-0.0628972226914105</v>
+        <v>-0.07837313956546482</v>
       </c>
       <c r="D55">
-        <v>0.006398208256791889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01234203019299675</v>
+      </c>
+      <c r="E55">
+        <v>-0.06491434690080156</v>
+      </c>
+      <c r="F55">
+        <v>0.0208450489370808</v>
+      </c>
+      <c r="G55">
+        <v>0.03030215892842861</v>
+      </c>
+      <c r="H55">
+        <v>-0.03859618413074597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1448336630132576</v>
+        <v>0.145793831562214</v>
       </c>
       <c r="C56">
-        <v>-0.08962221533260262</v>
+        <v>-0.1150477532491097</v>
       </c>
       <c r="D56">
-        <v>0.0009082059439871767</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02032672304435946</v>
+      </c>
+      <c r="E56">
+        <v>-0.05512589815844882</v>
+      </c>
+      <c r="F56">
+        <v>0.01751451839478716</v>
+      </c>
+      <c r="G56">
+        <v>0.0426844102109338</v>
+      </c>
+      <c r="H56">
+        <v>-0.04832021861995682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03509658195682279</v>
+        <v>0.03505093158534189</v>
       </c>
       <c r="C58">
-        <v>0.01688341944138489</v>
+        <v>-0.01570732704899924</v>
       </c>
       <c r="D58">
-        <v>0.433927990863257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3722193981842736</v>
+      </c>
+      <c r="E58">
+        <v>-0.2158080297838356</v>
+      </c>
+      <c r="F58">
+        <v>0.1064920979329322</v>
+      </c>
+      <c r="G58">
+        <v>-0.46326670592571</v>
+      </c>
+      <c r="H58">
+        <v>-0.3018660138449927</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1251080724661869</v>
+        <v>0.1553776843119333</v>
       </c>
       <c r="C59">
-        <v>0.2121140396085897</v>
+        <v>0.1864669732156151</v>
       </c>
       <c r="D59">
-        <v>0.02507171208809404</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04274368625314771</v>
+      </c>
+      <c r="E59">
+        <v>-0.009618229175484121</v>
+      </c>
+      <c r="F59">
+        <v>-0.02791099623645607</v>
+      </c>
+      <c r="G59">
+        <v>-0.01776670311996687</v>
+      </c>
+      <c r="H59">
+        <v>-0.02089813636223291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2564610117705667</v>
+        <v>0.2340992088593808</v>
       </c>
       <c r="C60">
-        <v>-0.06487804259311421</v>
+        <v>-0.08650335120091539</v>
       </c>
       <c r="D60">
-        <v>0.1072675715421027</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1411019323753783</v>
+      </c>
+      <c r="E60">
+        <v>0.3568211862507895</v>
+      </c>
+      <c r="F60">
+        <v>0.1216781166190988</v>
+      </c>
+      <c r="G60">
+        <v>-0.02161999665865727</v>
+      </c>
+      <c r="H60">
+        <v>-0.05337820503768147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05013904350529429</v>
+        <v>0.04382505402840902</v>
       </c>
       <c r="C61">
-        <v>-0.04966785769685631</v>
+        <v>-0.055358056569042</v>
       </c>
       <c r="D61">
-        <v>0.09256601262977182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0892282187546176</v>
+      </c>
+      <c r="E61">
+        <v>-0.02542053548426646</v>
+      </c>
+      <c r="F61">
+        <v>-0.01132749620260949</v>
+      </c>
+      <c r="G61">
+        <v>0.04039765598621584</v>
+      </c>
+      <c r="H61">
+        <v>0.06403886581136999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01707653492150356</v>
+        <v>0.01759641619362204</v>
       </c>
       <c r="C63">
-        <v>-0.02143025119485299</v>
+        <v>-0.02821865093849812</v>
       </c>
       <c r="D63">
-        <v>0.05551813435096745</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06743964042908039</v>
+      </c>
+      <c r="E63">
+        <v>-0.06120280963497339</v>
+      </c>
+      <c r="F63">
+        <v>0.01619883450103971</v>
+      </c>
+      <c r="G63">
+        <v>0.01655638450003344</v>
+      </c>
+      <c r="H63">
+        <v>0.03686217912156345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05565467956401667</v>
+        <v>0.05754123470683629</v>
       </c>
       <c r="C64">
-        <v>-0.04839377788763748</v>
+        <v>-0.06722815213289768</v>
       </c>
       <c r="D64">
-        <v>0.06416282191072646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05257350228053584</v>
+      </c>
+      <c r="E64">
+        <v>-0.03948607317548356</v>
+      </c>
+      <c r="F64">
+        <v>-0.03277560437464432</v>
+      </c>
+      <c r="G64">
+        <v>0.06857753554490487</v>
+      </c>
+      <c r="H64">
+        <v>0.01856522334077882</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06212058463466081</v>
+        <v>0.05412530644862763</v>
       </c>
       <c r="C65">
-        <v>-0.01494813083329647</v>
+        <v>-0.02379899965435414</v>
       </c>
       <c r="D65">
-        <v>0.1053404912670243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1167706030571673</v>
+      </c>
+      <c r="E65">
+        <v>-0.01143506969649405</v>
+      </c>
+      <c r="F65">
+        <v>0.01482347774356796</v>
+      </c>
+      <c r="G65">
+        <v>-0.04557169045414848</v>
+      </c>
+      <c r="H65">
+        <v>-0.02062664541548472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0526805430348062</v>
+        <v>0.04831987011506737</v>
       </c>
       <c r="C66">
-        <v>-0.05660909339025866</v>
+        <v>-0.0689668665517271</v>
       </c>
       <c r="D66">
-        <v>0.1093376639474992</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.119584612257483</v>
+      </c>
+      <c r="E66">
+        <v>-0.02998076248589531</v>
+      </c>
+      <c r="F66">
+        <v>-0.01309629225976991</v>
+      </c>
+      <c r="G66">
+        <v>0.01741084604787299</v>
+      </c>
+      <c r="H66">
+        <v>0.06030422091695423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05187535915756365</v>
+        <v>0.04253717753197265</v>
       </c>
       <c r="C67">
-        <v>-0.0251759700346837</v>
+        <v>-0.02708184824438896</v>
       </c>
       <c r="D67">
-        <v>0.02648777656763733</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02435764388633858</v>
+      </c>
+      <c r="E67">
+        <v>-0.02565953819903215</v>
+      </c>
+      <c r="F67">
+        <v>-0.0001765079994344645</v>
+      </c>
+      <c r="G67">
+        <v>-0.01689414568772712</v>
+      </c>
+      <c r="H67">
+        <v>0.03485816775096549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1380111589495948</v>
+        <v>0.1688151240445137</v>
       </c>
       <c r="C68">
-        <v>0.2927962570713354</v>
+        <v>0.2379047542198397</v>
       </c>
       <c r="D68">
-        <v>-0.03137965588766612</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.001122652760806257</v>
+      </c>
+      <c r="E68">
+        <v>-0.05496633677487162</v>
+      </c>
+      <c r="F68">
+        <v>0.03164831689647692</v>
+      </c>
+      <c r="G68">
+        <v>-0.01253839709817061</v>
+      </c>
+      <c r="H68">
+        <v>-0.01068615101082985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09672632788252694</v>
+        <v>0.08818247262373351</v>
       </c>
       <c r="C69">
-        <v>-0.08273200360249013</v>
+        <v>-0.1001442032106212</v>
       </c>
       <c r="D69">
-        <v>0.04427106546275865</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04572972299015614</v>
+      </c>
+      <c r="E69">
+        <v>-0.04699697891520526</v>
+      </c>
+      <c r="F69">
+        <v>-0.002371897337104274</v>
+      </c>
+      <c r="G69">
+        <v>0.05441659862038536</v>
+      </c>
+      <c r="H69">
+        <v>0.01627409120263595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1202946050724639</v>
+        <v>0.1590626950342204</v>
       </c>
       <c r="C71">
-        <v>0.2605531027371001</v>
+        <v>0.23345414206887</v>
       </c>
       <c r="D71">
-        <v>0.03256561665281466</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03689030016529214</v>
+      </c>
+      <c r="E71">
+        <v>-0.05583099337544544</v>
+      </c>
+      <c r="F71">
+        <v>0.0186486490861602</v>
+      </c>
+      <c r="G71">
+        <v>0.04062593898829679</v>
+      </c>
+      <c r="H71">
+        <v>0.004359074584206655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09821077415334009</v>
+        <v>0.1026961767379846</v>
       </c>
       <c r="C72">
-        <v>-0.04233163761079969</v>
+        <v>-0.05595188045973612</v>
       </c>
       <c r="D72">
-        <v>0.08056855887994668</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.088158976769316</v>
+      </c>
+      <c r="E72">
+        <v>0.0134049229589778</v>
+      </c>
+      <c r="F72">
+        <v>0.02933426153623186</v>
+      </c>
+      <c r="G72">
+        <v>0.05383246246284643</v>
+      </c>
+      <c r="H72">
+        <v>0.0194271971629978</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3041944113679639</v>
+        <v>0.2697496374222128</v>
       </c>
       <c r="C73">
-        <v>0.002176806088947039</v>
+        <v>-0.04943796699670424</v>
       </c>
       <c r="D73">
-        <v>0.198694803976632</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2298410432565143</v>
+      </c>
+      <c r="E73">
+        <v>0.6482344593038609</v>
+      </c>
+      <c r="F73">
+        <v>0.161036295027253</v>
+      </c>
+      <c r="G73">
+        <v>-0.07120973945472803</v>
+      </c>
+      <c r="H73">
+        <v>-0.06471809522464941</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1086008618672435</v>
+        <v>0.1094731136327273</v>
       </c>
       <c r="C74">
-        <v>-0.08091971584982237</v>
+        <v>-0.09161969901764216</v>
       </c>
       <c r="D74">
-        <v>0.03499878792126852</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.00549902606106671</v>
+      </c>
+      <c r="E74">
+        <v>-0.07626199734938038</v>
+      </c>
+      <c r="F74">
+        <v>0.04314413046804647</v>
+      </c>
+      <c r="G74">
+        <v>0.03229703083241667</v>
+      </c>
+      <c r="H74">
+        <v>-0.07815562303953109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2557500568956312</v>
+        <v>0.2512567435128925</v>
       </c>
       <c r="C75">
-        <v>-0.1008479170462212</v>
+        <v>-0.1416547464674142</v>
       </c>
       <c r="D75">
-        <v>-0.08094279456624194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1230803470564144</v>
+      </c>
+      <c r="E75">
+        <v>-0.05896544352214798</v>
+      </c>
+      <c r="F75">
+        <v>-0.02345397047912563</v>
+      </c>
+      <c r="G75">
+        <v>0.02058053675191309</v>
+      </c>
+      <c r="H75">
+        <v>-0.1670817332574402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1208984875027933</v>
+        <v>0.1297133523001341</v>
       </c>
       <c r="C76">
-        <v>-0.08291513577902027</v>
+        <v>-0.1027390171576685</v>
       </c>
       <c r="D76">
-        <v>0.003215292939897035</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02564492175934941</v>
+      </c>
+      <c r="E76">
+        <v>-0.1086946230272381</v>
+      </c>
+      <c r="F76">
+        <v>0.0001182104399629867</v>
+      </c>
+      <c r="G76">
+        <v>0.05037453072198762</v>
+      </c>
+      <c r="H76">
+        <v>-0.05036614473703843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08043336284396949</v>
+        <v>0.06830933340825696</v>
       </c>
       <c r="C77">
-        <v>-0.01255387114263428</v>
+        <v>-0.06158834763455692</v>
       </c>
       <c r="D77">
-        <v>0.1113677823028608</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1155410865837295</v>
+      </c>
+      <c r="E77">
+        <v>-0.0679613577399352</v>
+      </c>
+      <c r="F77">
+        <v>-0.2926094426147441</v>
+      </c>
+      <c r="G77">
+        <v>-0.172998807010248</v>
+      </c>
+      <c r="H77">
+        <v>-0.1168369224662296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03956470618035989</v>
+        <v>0.04487260708660972</v>
       </c>
       <c r="C78">
-        <v>-0.04097804002720425</v>
+        <v>-0.05805009269603782</v>
       </c>
       <c r="D78">
-        <v>0.09143893454963008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1190726206625403</v>
+      </c>
+      <c r="E78">
+        <v>-0.03061646044927448</v>
+      </c>
+      <c r="F78">
+        <v>0.00176224409967314</v>
+      </c>
+      <c r="G78">
+        <v>0.04155855970850893</v>
+      </c>
+      <c r="H78">
+        <v>0.01806049655574291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.003064235419091637</v>
+        <v>0.0406296112457453</v>
       </c>
       <c r="C79">
-        <v>0.002463393390338103</v>
+        <v>-0.06748041052315476</v>
       </c>
       <c r="D79">
-        <v>0.01481314114360046</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05518864784942221</v>
+      </c>
+      <c r="E79">
+        <v>-0.127876055758701</v>
+      </c>
+      <c r="F79">
+        <v>0.04650454461996887</v>
+      </c>
+      <c r="G79">
+        <v>0.361021467846784</v>
+      </c>
+      <c r="H79">
+        <v>-0.690659467198228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03643642989287951</v>
+        <v>0.0298034027097283</v>
       </c>
       <c r="C80">
-        <v>-0.02032538419961492</v>
+        <v>-0.03779056928221559</v>
       </c>
       <c r="D80">
-        <v>0.03776769896626277</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0360520848532361</v>
+      </c>
+      <c r="E80">
+        <v>-0.003670030067267321</v>
+      </c>
+      <c r="F80">
+        <v>-0.04508108660276118</v>
+      </c>
+      <c r="G80">
+        <v>-0.02747848323877419</v>
+      </c>
+      <c r="H80">
+        <v>0.03758147817857992</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1528257168157511</v>
+        <v>0.140876218650614</v>
       </c>
       <c r="C81">
-        <v>-0.08169973636952139</v>
+        <v>-0.108167641308611</v>
       </c>
       <c r="D81">
-        <v>-0.03772586350406795</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07907758719976556</v>
+      </c>
+      <c r="E81">
+        <v>-0.1023395295100574</v>
+      </c>
+      <c r="F81">
+        <v>-0.009389576357813793</v>
+      </c>
+      <c r="G81">
+        <v>0.03493102284159812</v>
+      </c>
+      <c r="H81">
+        <v>-0.07109102013758042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2766556671298693</v>
+        <v>0.2527384280847672</v>
       </c>
       <c r="C82">
-        <v>-0.1873140830512494</v>
+        <v>-0.2065974059920365</v>
       </c>
       <c r="D82">
-        <v>-0.2385601087171242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2302271929223381</v>
+      </c>
+      <c r="E82">
+        <v>0.04334729590354858</v>
+      </c>
+      <c r="F82">
+        <v>0.01864831784408793</v>
+      </c>
+      <c r="G82">
+        <v>0.4104671515659777</v>
+      </c>
+      <c r="H82">
+        <v>0.3421230341522622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04271570344859727</v>
+        <v>0.02815625028211397</v>
       </c>
       <c r="C83">
-        <v>-0.03468824881259863</v>
+        <v>-0.04813586478249404</v>
       </c>
       <c r="D83">
-        <v>0.07362064491696865</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05128638570637535</v>
+      </c>
+      <c r="E83">
+        <v>-0.003826611700467221</v>
+      </c>
+      <c r="F83">
+        <v>-0.02526404669632058</v>
+      </c>
+      <c r="G83">
+        <v>0.002397946155761369</v>
+      </c>
+      <c r="H83">
+        <v>0.02628938414585261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>9.761925755700548e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.002080503563305533</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.004378806919281227</v>
+      </c>
+      <c r="E84">
+        <v>-0.00993367189062282</v>
+      </c>
+      <c r="F84">
+        <v>0.004390512612995456</v>
+      </c>
+      <c r="G84">
+        <v>-0.004080383942946649</v>
+      </c>
+      <c r="H84">
+        <v>0.007800209871018512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1952220554480171</v>
+        <v>0.1788562508110313</v>
       </c>
       <c r="C85">
-        <v>-0.07800185110114227</v>
+        <v>-0.1114960180569177</v>
       </c>
       <c r="D85">
-        <v>-0.0669737222139971</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09322315613176599</v>
+      </c>
+      <c r="E85">
+        <v>-0.03361507519668311</v>
+      </c>
+      <c r="F85">
+        <v>0.01815338790189861</v>
+      </c>
+      <c r="G85">
+        <v>0.06547489167594815</v>
+      </c>
+      <c r="H85">
+        <v>-0.1475010897472856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01316602700657594</v>
+        <v>0.01876337255107922</v>
       </c>
       <c r="C86">
-        <v>-0.01467051142614843</v>
+        <v>-0.01278716092020231</v>
       </c>
       <c r="D86">
-        <v>0.1365115912893304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1222109431060875</v>
+      </c>
+      <c r="E86">
+        <v>-0.02417751534014731</v>
+      </c>
+      <c r="F86">
+        <v>-0.01365027369803217</v>
+      </c>
+      <c r="G86">
+        <v>0.04231985346493047</v>
+      </c>
+      <c r="H86">
+        <v>0.05383820098945515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03282278283581305</v>
+        <v>0.03478894438073241</v>
       </c>
       <c r="C87">
-        <v>-0.008360583877992557</v>
+        <v>-0.02584357397276085</v>
       </c>
       <c r="D87">
-        <v>0.1093083662562447</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1241198646970762</v>
+      </c>
+      <c r="E87">
+        <v>-0.09481982371086958</v>
+      </c>
+      <c r="F87">
+        <v>-0.03328168506681232</v>
+      </c>
+      <c r="G87">
+        <v>0.005310998288472053</v>
+      </c>
+      <c r="H87">
+        <v>0.02672788235701493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09735302822450208</v>
+        <v>0.0831448411320667</v>
       </c>
       <c r="C88">
-        <v>-0.07272174412809909</v>
+        <v>-0.07006300855630396</v>
       </c>
       <c r="D88">
-        <v>0.0686806481535641</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03796915577777696</v>
+      </c>
+      <c r="E88">
+        <v>-0.0560977555574807</v>
+      </c>
+      <c r="F88">
+        <v>-0.009496435088964302</v>
+      </c>
+      <c r="G88">
+        <v>0.02575830797990672</v>
+      </c>
+      <c r="H88">
+        <v>0.03860997121193239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1889687547362319</v>
+        <v>0.2426548842646657</v>
       </c>
       <c r="C89">
-        <v>0.3721248770389892</v>
+        <v>0.3656525583306546</v>
       </c>
       <c r="D89">
-        <v>-0.02634210934459258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002435614628399628</v>
+      </c>
+      <c r="E89">
+        <v>-0.08150562463850726</v>
+      </c>
+      <c r="F89">
+        <v>-0.06113595775365682</v>
+      </c>
+      <c r="G89">
+        <v>0.03757717208167585</v>
+      </c>
+      <c r="H89">
+        <v>0.03339174664293926</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1825807727079058</v>
+        <v>0.217773593764772</v>
       </c>
       <c r="C90">
-        <v>0.3088406880024052</v>
+        <v>0.2821291839639795</v>
       </c>
       <c r="D90">
-        <v>-0.02107751366062164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01293002019166013</v>
+      </c>
+      <c r="E90">
+        <v>-0.05592743916159124</v>
+      </c>
+      <c r="F90">
+        <v>-0.002851779147390559</v>
+      </c>
+      <c r="G90">
+        <v>-0.01016680596723381</v>
+      </c>
+      <c r="H90">
+        <v>0.05854806379642875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1944656019822447</v>
+        <v>0.1822638847651787</v>
       </c>
       <c r="C91">
-        <v>-0.1439885726074768</v>
+        <v>-0.1600960101463955</v>
       </c>
       <c r="D91">
-        <v>-0.04329950386645169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08460588590851825</v>
+      </c>
+      <c r="E91">
+        <v>-0.08756897680387381</v>
+      </c>
+      <c r="F91">
+        <v>0.006856650603822409</v>
+      </c>
+      <c r="G91">
+        <v>0.03302095745753549</v>
+      </c>
+      <c r="H91">
+        <v>-0.1545402754741064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1640959926313333</v>
+        <v>0.1992946860658078</v>
       </c>
       <c r="C92">
-        <v>0.2773720636389176</v>
+        <v>0.2826606457918954</v>
       </c>
       <c r="D92">
-        <v>0.04586913569628511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01375765381266709</v>
+      </c>
+      <c r="E92">
+        <v>-0.07771656144297319</v>
+      </c>
+      <c r="F92">
+        <v>-0.0475850726491393</v>
+      </c>
+      <c r="G92">
+        <v>0.02607631772557843</v>
+      </c>
+      <c r="H92">
+        <v>0.03650824926001865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.205436512255802</v>
+        <v>0.2381064992990981</v>
       </c>
       <c r="C93">
-        <v>0.3310293971335122</v>
+        <v>0.299572113372598</v>
       </c>
       <c r="D93">
-        <v>0.0005511088969250487</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005923723750660099</v>
+      </c>
+      <c r="E93">
+        <v>-0.0410540468746244</v>
+      </c>
+      <c r="F93">
+        <v>0.02666914141999515</v>
+      </c>
+      <c r="G93">
+        <v>0.02718850083016301</v>
+      </c>
+      <c r="H93">
+        <v>0.01683577159496068</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4055881133083116</v>
+        <v>0.3566722377853445</v>
       </c>
       <c r="C94">
-        <v>-0.2255717143569579</v>
+        <v>-0.2315213597799468</v>
       </c>
       <c r="D94">
-        <v>-0.4573936943270776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4425348705773898</v>
+      </c>
+      <c r="E94">
+        <v>-0.1080789469324055</v>
+      </c>
+      <c r="F94">
+        <v>-0.02658197502713214</v>
+      </c>
+      <c r="G94">
+        <v>-0.5847277706817607</v>
+      </c>
+      <c r="H94">
+        <v>0.1461954637071832</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09724157537335841</v>
+        <v>0.07344023175594931</v>
       </c>
       <c r="C95">
-        <v>0.01731317974297191</v>
+        <v>-0.03859851986977215</v>
       </c>
       <c r="D95">
-        <v>0.07232969929868474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09566881116298551</v>
+      </c>
+      <c r="E95">
+        <v>0.1879065452203532</v>
+      </c>
+      <c r="F95">
+        <v>-0.8959926120698132</v>
+      </c>
+      <c r="G95">
+        <v>0.01702878305826964</v>
+      </c>
+      <c r="H95">
+        <v>-0.07196948232025274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1730901171685843</v>
+        <v>0.1692418570852554</v>
       </c>
       <c r="C98">
-        <v>-0.01653559162976636</v>
+        <v>-0.0469409386956012</v>
       </c>
       <c r="D98">
-        <v>0.1289885676662575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1486628288441107</v>
+      </c>
+      <c r="E98">
+        <v>0.2707443959386785</v>
+      </c>
+      <c r="F98">
+        <v>0.1114145363939117</v>
+      </c>
+      <c r="G98">
+        <v>0.01067861581346129</v>
+      </c>
+      <c r="H98">
+        <v>-0.01026297950835047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008276099755041387</v>
+        <v>0.008382071825661129</v>
       </c>
       <c r="C101">
-        <v>-0.02111558387532874</v>
+        <v>-0.02304004432489737</v>
       </c>
       <c r="D101">
-        <v>0.06290944706452559</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07401081276745002</v>
+      </c>
+      <c r="E101">
+        <v>-0.05981026880584274</v>
+      </c>
+      <c r="F101">
+        <v>0.0004806592494269431</v>
+      </c>
+      <c r="G101">
+        <v>0.04143830415752634</v>
+      </c>
+      <c r="H101">
+        <v>0.07673860674353664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1293472545895529</v>
+        <v>0.1192820461426108</v>
       </c>
       <c r="C102">
-        <v>-0.08295923150114566</v>
+        <v>-0.108889312658606</v>
       </c>
       <c r="D102">
-        <v>-0.03308686220641859</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04892093944328443</v>
+      </c>
+      <c r="E102">
+        <v>-0.01305004745381235</v>
+      </c>
+      <c r="F102">
+        <v>-0.02409147919288967</v>
+      </c>
+      <c r="G102">
+        <v>0.04837313672442943</v>
+      </c>
+      <c r="H102">
+        <v>-0.02055255534090789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
